--- a/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,41; 92,83</t>
+          <t>85,85; 92,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,33; 92,4</t>
+          <t>87,07; 92,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,69; 91,69</t>
+          <t>87,61; 91,85</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,78; 78,85</t>
+          <t>73,24; 79,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,02; 84,38</t>
+          <t>75,07; 84,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,24; 81,09</t>
+          <t>74,96; 80,76</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,02; 67,82</t>
+          <t>57,48; 68,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,67; 73,48</t>
+          <t>64,62; 73,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,36; 69,36</t>
+          <t>62,74; 69,59</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,35; 77,81</t>
+          <t>73,48; 77,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,41; 83,47</t>
+          <t>77,07; 83,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,15; 80,06</t>
+          <t>76,12; 80,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,85; 92,92</t>
+          <t>85,41; 92,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,07; 92,34</t>
+          <t>87,33; 92,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,61; 91,85</t>
+          <t>87,69; 91,69</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,24; 79,25</t>
+          <t>72,78; 78,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,07; 84,29</t>
+          <t>75,02; 84,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,96; 80,76</t>
+          <t>75,24; 81,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,48; 68,57</t>
+          <t>57,02; 67,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,62; 73,27</t>
+          <t>64,67; 73,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,74; 69,59</t>
+          <t>62,36; 69,36</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,48; 77,75</t>
+          <t>73,35; 77,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,07; 83,0</t>
+          <t>77,41; 83,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,12; 80,02</t>
+          <t>76,15; 80,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>89,92%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,41; 92,83</t>
+          <t>85,25; 92,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,33; 92,4</t>
+          <t>87,44; 92,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,69; 91,69</t>
+          <t>87,71; 91,7</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,68%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,47%</t>
+          <t>77,3%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,78; 78,85</t>
+          <t>71,96; 78,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,02; 84,38</t>
+          <t>71,79; 87,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,24; 81,09</t>
+          <t>73,54; 83,51</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,79%</t>
+          <t>63,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69,26%</t>
+          <t>69,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>66,51%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,02; 67,82</t>
+          <t>57,89; 69,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,67; 73,48</t>
+          <t>64,43; 73,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,36; 69,36</t>
+          <t>62,82; 69,8</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>77,6%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,35; 77,81</t>
+          <t>72,9; 77,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,41; 83,47</t>
+          <t>75,53; 85,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,15; 80,06</t>
+          <t>75,1; 81,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,25; 92,73</t>
+          <t>85,52; 92,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,44; 92,46</t>
+          <t>87,37; 92,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,71; 91,7</t>
+          <t>87,52; 91,63</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,96; 78,57</t>
+          <t>72,27; 78,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,79; 87,27</t>
+          <t>72,77; 87,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,54; 83,51</t>
+          <t>73,6; 82,89</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,89; 69,06</t>
+          <t>58,41; 69,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,43; 73,36</t>
+          <t>64,74; 73,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,82; 69,8</t>
+          <t>62,92; 70,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,9; 77,63</t>
+          <t>73,07; 77,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,53; 85,57</t>
+          <t>74,98; 85,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,1; 81,81</t>
+          <t>75,15; 81,34</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir el ruido (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>228403</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>343890</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>572293</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>218294; 236627</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>333062; 351909</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>557068; 583237</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>813869</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>946313</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1760182</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>777004; 847824</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>874688; 1051148</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1675969; 1887546</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>206930</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>223041</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>429972</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>189125; 226345</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>208881; 236033</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>406724; 452942</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3487</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1249203</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1513243</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2762446</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1208685; 1286556</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1428956; 1628198</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2675239; 2895720</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>